--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.3694</v>
+        <v>-12.1125</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.801</v>
+        <v>-12.864</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.45759999999999</v>
+        <v>-12.46569999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.479699999999996</v>
+        <v>-7.474499999999995</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.10719999999999</v>
+        <v>-13.3273</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.759200000000004</v>
+        <v>-7.744799999999997</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.266299999999998</v>
+        <v>-7.260899999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.586399999999996</v>
+        <v>-8.88619999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.09549999999999</v>
+        <v>-13.93939999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,10 +774,10 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.42759999999999</v>
+        <v>-12.125</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.835799999999995</v>
+        <v>-7.987599999999994</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -791,10 +791,10 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.3323</v>
+        <v>-12.4039</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.904899999999998</v>
+        <v>-8.006099999999998</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.193100000000006</v>
+        <v>-8.132500000000006</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.348099999999995</v>
+        <v>-7.415899999999996</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.96889999999999</v>
+        <v>-12.0509</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.39080000000001</v>
+        <v>-11.07780000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.092899999999995</v>
+        <v>-7.152099999999997</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.61649999999999</v>
+        <v>-12.6863</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.624</v>
+        <v>-12.7874</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.689000000000004</v>
+        <v>-7.754100000000001</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.17550000000001</v>
+        <v>-11.93960000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.654700000000002</v>
+        <v>-8.541400000000005</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.246600000000001</v>
+        <v>-8.202700000000002</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.000699999999998</v>
+        <v>-7.023300000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.426999999999997</v>
+        <v>-7.393599999999997</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,10 +1216,10 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.19539999999999</v>
+        <v>-13.80099999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.517000000000003</v>
+        <v>-8.5991</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.990599999999997</v>
+        <v>-8.013499999999995</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.3512</v>
+        <v>-12.4683</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.816299999999996</v>
+        <v>-7.846699999999996</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1404</v>
+        <v>-11.1008</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.90129999999999</v>
+        <v>-13.71219999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.621499999999999</v>
+        <v>-8.713000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.51409999999999</v>
+        <v>-12.65229999999999</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.03619999999999</v>
+        <v>-13.63239999999998</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.695899999999998</v>
+        <v>-7.849399999999998</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.04830000000001</v>
+        <v>-11.09140000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.324900000000001</v>
+        <v>-7.295899999999998</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.276500000000001</v>
+        <v>-6.380799999999999</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.40910000000001</v>
+        <v>-11.22930000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.25340000000001</v>
+        <v>-12.10900000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.9809</v>
+        <v>-12.2357</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.140000000000001</v>
+        <v>-6.262100000000003</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.838100000000003</v>
+        <v>-8.823800000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.914099999999999</v>
+        <v>-7.892599999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.60540000000001</v>
+        <v>-11.3886</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.731900000000005</v>
+        <v>-6.624500000000004</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.6759</v>
+        <v>-8.490500000000003</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.2106</v>
+        <v>-12.1569</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
